--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E6406F-852F-40C6-86CC-1B3ADDCB1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4644E295-12A8-459E-8DFC-32FE77DF27AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Фамилия</t>
   </si>
@@ -97,9 +97,6 @@
     <t>RISKC</t>
   </si>
   <si>
-    <t>04.11.2024</t>
-  </si>
-  <si>
     <t>SOA4C</t>
   </si>
   <si>
@@ -110,6 +107,12 @@
   </si>
   <si>
     <t>ITHRC</t>
+  </si>
+  <si>
+    <t>SYSAC</t>
+  </si>
+  <si>
+    <t>04.11.2030</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -958,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +976,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -983,7 +986,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -993,7 +996,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -1018,7 +1021,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4644E295-12A8-459E-8DFC-32FE77DF27AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7550B2-4874-44D5-9AB3-54641C8A9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7550B2-4874-44D5-9AB3-54641C8A9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6572E1-FEA8-4A24-B2B1-DFFF720FF0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Фамилия</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Proctor</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>LastName</t>
@@ -476,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -526,29 +523,26 @@
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>17</v>
       </c>
       <c r="J2">
         <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
@@ -963,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -971,62 +965,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6572E1-FEA8-4A24-B2B1-DFFF720FF0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2BB60-F32D-4A7E-B863-6E9881584B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <t>SYSAC</t>
   </si>
   <si>
-    <t>04.11.2030</t>
+    <t>04.11.2025</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2BB60-F32D-4A7E-B863-6E9881584B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546DBDA-7CB5-468A-8AAE-FCF724BCCB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <t>SYSAC</t>
   </si>
   <si>
-    <t>04.11.2025</t>
+    <t>01.01.2030</t>
   </si>
 </sst>
 </file>
@@ -544,6 +544,9 @@
       <c r="J2">
         <v>30</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546DBDA-7CB5-468A-8AAE-FCF724BCCB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69EEE4A-35C6-4246-AF9B-D1339BEEC482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69EEE4A-35C6-4246-AF9B-D1339BEEC482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781FE85-F317-428E-9E5B-20DD4B69DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Фамилия</t>
   </si>
@@ -64,9 +64,6 @@
     <t>ITIL4FC</t>
   </si>
   <si>
-    <t>CobitC</t>
-  </si>
-  <si>
     <t>BAFC</t>
   </si>
   <si>
@@ -85,12 +82,6 @@
     <t>sav.gv@bk.ru</t>
   </si>
   <si>
-    <t>Sav</t>
-  </si>
-  <si>
-    <t>Gree</t>
-  </si>
-  <si>
     <t>RISKC</t>
   </si>
   <si>
@@ -110,6 +101,21 @@
   </si>
   <si>
     <t>01.01.2030</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>CPIC</t>
+  </si>
+  <si>
+    <t>Cobit2019C</t>
+  </si>
+  <si>
+    <t>SCMC</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -523,20 +529,20 @@
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -958,72 +964,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781FE85-F317-428E-9E5B-20DD4B69DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782644C9-B60C-43A8-8B61-62F22ECF4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,10 +112,10 @@
     <t>CPIC</t>
   </si>
   <si>
-    <t>Cobit2019C</t>
-  </si>
-  <si>
     <t>SCMC</t>
+  </si>
+  <si>
+    <t>CobitC</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A19">
     <sortCondition ref="A1:A19"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1 A9:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782644C9-B60C-43A8-8B61-62F22ECF4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8416C-AD76-4D23-BD93-42F8E1C933EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>SCMC</t>
   </si>
   <si>
-    <t>CobitC</t>
+    <t>Cobit2019C</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>23</v>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8416C-AD76-4D23-BD93-42F8E1C933EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506FDCF-4B3A-44E8-8F79-80C5F79A4789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>RCVC</t>
   </si>
   <si>
-    <t>sav.gv@bk.ru</t>
-  </si>
-  <si>
     <t>RISKC</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
     <t>01.01.2030</t>
   </si>
   <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Петр</t>
-  </si>
-  <si>
     <t>CPIC</t>
   </si>
   <si>
@@ -116,6 +107,15 @@
   </si>
   <si>
     <t>Cobit2019C</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Тестый</t>
+  </si>
+  <si>
+    <t>test@test.tt</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,20 +529,20 @@
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -979,22 +979,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -1004,7 +1004,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -1024,22 +1024,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scripts\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506FDCF-4B3A-44E8-8F79-80C5F79A4789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9FAA3A-4BE3-4713-8B17-1AE25726548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
     <sheet name="exam_list" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Экзамены!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Экзамены!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Фамилия</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>test@test.tt</t>
+  </si>
+  <si>
+    <t>Страховой сертификат</t>
   </si>
 </sst>
 </file>
@@ -477,22 +480,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="1"/>
     <col min="4" max="4" width="12" style="1"/>
-    <col min="5" max="5" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12" style="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="12" style="1"/>
+    <col min="12" max="12" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +531,11 @@
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -545,68 +553,71 @@
         <v>22</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="H16" s="4"/>
     </row>
@@ -941,7 +952,7 @@
       <c r="K73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -967,7 +978,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scripts\ite_proctor_exam_telegram_bot\data\output\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9FAA3A-4BE3-4713-8B17-1AE25726548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7C044-4157-4955-B31F-E6DACC962362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамены" sheetId="1" r:id="rId1"/>
     <sheet name="exam_list" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Экзамены!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Экзамены!$A$1:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Фамилия</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Страховой сертификат</t>
+  </si>
+  <si>
+    <t>Копия письма</t>
   </si>
 </sst>
 </file>
@@ -181,13 +184,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +498,11 @@
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="11" width="12" style="1"/>
     <col min="12" max="12" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="12" style="1"/>
+    <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,8 +539,11 @@
       <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -552,8 +560,8 @@
       <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2">
-        <v>11</v>
+      <c r="I2" s="6">
+        <v>12</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -565,59 +573,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="H16" s="4"/>
     </row>
@@ -952,7 +960,7 @@
       <c r="K73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7C044-4157-4955-B31F-E6DACC962362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061BE96-C760-497A-B2F4-2DD883EF7879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>SYSAC</t>
   </si>
   <si>
-    <t>01.01.2030</t>
-  </si>
-  <si>
     <t>CPIC</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Копия письма</t>
+  </si>
+  <si>
+    <t>01.01.2029</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,31 +537,31 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1003,12 +1003,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061BE96-C760-497A-B2F4-2DD883EF7879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E861F2-E242-464A-9E77-8F260D3EEB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>Копия письма</t>
   </si>
   <si>
-    <t>01.01.2029</t>
+    <t>01.02.2029</t>
   </si>
 </sst>
 </file>
@@ -184,14 +184,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -560,7 +559,7 @@
       <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <v>10</v>
       </c>
       <c r="J2">

--- a/data/output/template/template.xlsx
+++ b/data/output/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_proctor_exam_telegram_bot\data\output\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E861F2-E242-464A-9E77-8F260D3EEB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C6D51-4E52-4CAF-8FDE-B7D2202EBA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>ITIL4FC</t>
-  </si>
-  <si>
     <t>BAFC</t>
   </si>
   <si>
@@ -121,7 +118,10 @@
     <t>Копия письма</t>
   </si>
   <si>
-    <t>01.02.2029</t>
+    <t>ITSMC</t>
+  </si>
+  <si>
+    <t>01.03.2026</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -536,25 +536,25 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>30</v>
@@ -967,7 +967,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>exam_list!$A:$A</xm:f>
@@ -985,79 +985,79 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
